--- a/mii/hospitals/hospitals_catalunya_geocoded.xlsx
+++ b/mii/hospitals/hospitals_catalunya_geocoded.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciamug/Desktop/repos/regions-sanitaries-catalunya/mii/hospitals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C2E90-6CD5-5940-B498-5CADADFBF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,9 +70,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>Tipus hospital</t>
   </si>
   <si>
@@ -895,7 +898,7 @@
     <t>93 416 97 00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 93 227 54 00</t>
+    <t> 93 227 54 00</t>
   </si>
   <si>
     <t>93 227 56 00</t>
@@ -955,7 +958,7 @@
     <t>93 731 00 07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 93 842 50 00</t>
+    <t> 93 842 50 00</t>
   </si>
   <si>
     <t>93 576 03 00</t>
@@ -1072,7 +1075,7 @@
     <t>Atenció d'urgències a l'Hospital de Bellvitge</t>
   </si>
   <si>
-    <t xml:space="preserve"> Urgències i emergències 24 hores.</t>
+    <t> Urgències i emergències 24 hores.</t>
   </si>
   <si>
     <t>Atenció d'urgències a Hospital Universitari de Sant Joan de Reus.</t>
@@ -1355,13 +1358,16 @@
   </si>
   <si>
     <t>Hospital Comarcal Móra d'Ebre, 43740, MÓRA D'EBRE, Spain</t>
+  </si>
+  <si>
+    <t>lng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,6 +1430,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1470,7 +1484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1502,9 +1516,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,6 +1568,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1711,14 +1761,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,51 +1820,51 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1821,63 +1873,63 @@
         <v>25700</v>
       </c>
       <c r="J2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L2">
         <v>71</v>
       </c>
       <c r="P2">
-        <v>42.3548613</v>
+        <v>42.354861300000003</v>
       </c>
       <c r="Q2">
-        <v>1.460884</v>
+        <v>1.4608840000000001</v>
       </c>
       <c r="R2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -1886,60 +1938,60 @@
         <v>17520</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P3">
         <v>42.4440454</v>
       </c>
       <c r="Q3">
-        <v>1.9302993</v>
+        <v>1.9302992999999999</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1948,60 +2000,60 @@
         <v>25620</v>
       </c>
       <c r="J4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P4">
-        <v>42.1644335</v>
+        <v>42.164433500000001</v>
       </c>
       <c r="Q4">
-        <v>0.8973226</v>
+        <v>0.89732259999999997</v>
       </c>
       <c r="R4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2010,60 +2062,60 @@
         <v>25530</v>
       </c>
       <c r="J5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P5">
-        <v>42.7017252</v>
+        <v>42.701725199999998</v>
       </c>
       <c r="Q5">
-        <v>0.7972996999999999</v>
+        <v>0.79729969999999994</v>
       </c>
       <c r="R5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2072,60 +2124,60 @@
         <v>8720</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P6">
-        <v>41.3563603</v>
+        <v>41.356360299999999</v>
       </c>
       <c r="Q6">
-        <v>1.7049286</v>
+        <v>1.7049285999999999</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2134,45 +2186,45 @@
         <v>8950</v>
       </c>
       <c r="K7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P7">
-        <v>41.3842658</v>
+        <v>41.384265800000001</v>
       </c>
       <c r="Q7">
-        <v>2.1019417</v>
+        <v>2.1019416999999998</v>
       </c>
       <c r="T7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="X7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2181,60 +2233,60 @@
         <v>8760</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P8">
-        <v>41.47179209999999</v>
+        <v>41.471792099999988</v>
       </c>
       <c r="Q8">
-        <v>1.9203068</v>
+        <v>1.9203068000000001</v>
       </c>
       <c r="R8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -2243,60 +2295,60 @@
         <v>8830</v>
       </c>
       <c r="J9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P9">
         <v>41.3527694</v>
       </c>
       <c r="Q9">
-        <v>2.0343739</v>
+        <v>2.0343738999999998</v>
       </c>
       <c r="R9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -2305,60 +2357,60 @@
         <v>8970</v>
       </c>
       <c r="J10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P10">
         <v>41.3733164</v>
       </c>
       <c r="Q10">
-        <v>2.0725157</v>
+        <v>2.0725156999999998</v>
       </c>
       <c r="R10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11">
         <v>38</v>
@@ -2367,1526 +2419,1526 @@
         <v>8840</v>
       </c>
       <c r="J11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P11">
-        <v>41.31245819999999</v>
+        <v>41.312458199999988</v>
       </c>
       <c r="Q11">
-        <v>2.0146536</v>
+        <v>2.0146535999999999</v>
       </c>
       <c r="R11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12">
         <v>8911</v>
       </c>
       <c r="J12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P12">
-        <v>41.4504934</v>
+        <v>41.450493399999999</v>
       </c>
       <c r="Q12">
-        <v>2.245607</v>
+        <v>2.2456070000000001</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U12">
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13">
         <v>8916</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P13">
-        <v>41.481187</v>
+        <v>41.481186999999998</v>
       </c>
       <c r="Q13">
-        <v>2.2375473</v>
+        <v>2.2375473000000001</v>
       </c>
       <c r="R13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I14">
         <v>8917</v>
       </c>
       <c r="J14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P14">
-        <v>41.446964</v>
+        <v>41.446964000000001</v>
       </c>
       <c r="Q14">
         <v>2.2449607</v>
       </c>
       <c r="T14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I15">
         <v>8918</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P15">
-        <v>41.4786253</v>
+        <v>41.478625299999997</v>
       </c>
       <c r="Q15">
         <v>2.2368877</v>
       </c>
       <c r="T15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16">
         <v>8025</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P16">
-        <v>41.4127986</v>
+        <v>41.412798600000002</v>
       </c>
       <c r="Q16">
-        <v>2.1724597</v>
+        <v>2.1724597000000001</v>
       </c>
       <c r="T16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I17">
         <v>8036</v>
       </c>
       <c r="J17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P17">
         <v>41.3894436</v>
       </c>
       <c r="Q17">
-        <v>2.1523119</v>
+        <v>2.1523118999999999</v>
       </c>
       <c r="R17">
         <v>3</v>
       </c>
       <c r="S17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U17">
         <v>3</v>
       </c>
       <c r="V17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18">
         <v>8028</v>
       </c>
       <c r="J18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P18">
-        <v>41.3852869</v>
+        <v>41.385286899999997</v>
       </c>
       <c r="Q18">
         <v>2.1233659</v>
       </c>
       <c r="T18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19">
         <v>8025</v>
       </c>
       <c r="J19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P19">
-        <v>41.4105387</v>
+        <v>41.410538699999996</v>
       </c>
       <c r="Q19">
-        <v>2.1771537</v>
+        <v>2.1771536999999999</v>
       </c>
       <c r="R19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X19" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20">
         <v>8006</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P20">
-        <v>41.40119199999999</v>
+        <v>41.401191999999988</v>
       </c>
       <c r="Q20">
-        <v>2.1422907</v>
+        <v>2.1422907000000002</v>
       </c>
       <c r="R20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I21">
         <v>8035</v>
       </c>
       <c r="J21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P21">
-        <v>41.4256391</v>
+        <v>41.425639099999998</v>
       </c>
       <c r="Q21">
         <v>2.1409433</v>
       </c>
       <c r="T21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I22">
         <v>8035</v>
       </c>
       <c r="J22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P22">
-        <v>41.4276874</v>
+        <v>41.427687400000003</v>
       </c>
       <c r="Q22">
-        <v>2.1423868</v>
+        <v>2.1423868000000001</v>
       </c>
       <c r="R22">
         <v>3</v>
       </c>
       <c r="S22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U22">
         <v>3</v>
       </c>
       <c r="V22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I23">
         <v>8036</v>
       </c>
       <c r="J23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P23">
-        <v>41.42834610000001</v>
+        <v>41.428346100000013</v>
       </c>
       <c r="Q23">
-        <v>2.14243</v>
+        <v>2.1424300000000001</v>
       </c>
       <c r="T23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I24">
         <v>8029</v>
       </c>
       <c r="J24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P24">
-        <v>41.3889084</v>
+        <v>41.388908399999998</v>
       </c>
       <c r="Q24">
-        <v>2.1456527</v>
+        <v>2.1456526999999999</v>
       </c>
       <c r="R24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I25">
         <v>8035</v>
       </c>
       <c r="J25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P25">
-        <v>41.4273795</v>
+        <v>41.427379500000001</v>
       </c>
       <c r="Q25">
         <v>2.1397412</v>
       </c>
       <c r="T25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I26">
         <v>8024</v>
       </c>
       <c r="J26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P26">
-        <v>41.4107227</v>
+        <v>41.410722700000001</v>
       </c>
       <c r="Q26">
         <v>2.1545071</v>
       </c>
       <c r="T26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X26" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I27">
         <v>8041</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P27">
-        <v>41.4136997</v>
+        <v>41.413699700000002</v>
       </c>
       <c r="Q27">
-        <v>2.174314</v>
+        <v>2.1743139999999999</v>
       </c>
       <c r="R27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X27" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28">
         <v>8003</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P28">
-        <v>41.3845118</v>
+        <v>41.384511799999999</v>
       </c>
       <c r="Q28">
-        <v>2.1939045</v>
+        <v>2.1939044999999999</v>
       </c>
       <c r="R28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X28" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I29">
         <v>8906</v>
       </c>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P29">
-        <v>41.3743365</v>
+        <v>41.374336499999998</v>
       </c>
       <c r="Q29">
-        <v>2.1065586</v>
+        <v>2.1065586000000001</v>
       </c>
       <c r="T29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X29" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I30">
         <v>8907</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P30">
-        <v>41.3447661</v>
+        <v>41.344766100000001</v>
       </c>
       <c r="Q30">
-        <v>2.1042319</v>
+        <v>2.1042318999999998</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="S30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I31">
         <v>8908</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P31">
-        <v>41.34576089999999</v>
+        <v>41.345760899999988</v>
       </c>
       <c r="Q31">
         <v>2.1114568</v>
       </c>
       <c r="T31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X31" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I32">
         <v>8923</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P32">
-        <v>41.4379339</v>
+        <v>41.437933899999997</v>
       </c>
       <c r="Q32">
-        <v>2.2132305</v>
+        <v>2.2132304999999999</v>
       </c>
       <c r="R32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X32" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I33">
         <v>8810</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P33">
-        <v>41.253937</v>
+        <v>41.253937000000001</v>
       </c>
       <c r="Q33">
-        <v>1.7653236</v>
+        <v>1.7653236000000001</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I34">
         <v>8800</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P34">
-        <v>41.228815</v>
+        <v>41.228814999999997</v>
       </c>
       <c r="Q34">
-        <v>1.7219448</v>
+        <v>1.7219447999999999</v>
       </c>
       <c r="T34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X34" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I35">
         <v>8304</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P35">
-        <v>41.5561131</v>
+        <v>41.556113099999997</v>
       </c>
       <c r="Q35">
-        <v>2.4297714</v>
+        <v>2.4297713999999999</v>
       </c>
       <c r="R35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I36">
         <v>8208</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P36">
         <v>41.5570752</v>
       </c>
       <c r="Q36">
-        <v>2.1098612</v>
+        <v>2.1098612000000001</v>
       </c>
       <c r="R36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X36" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3895,122 +3947,122 @@
         <v>8221</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P37">
-        <v>41.5638576</v>
+        <v>41.563857599999999</v>
       </c>
       <c r="Q37">
-        <v>2.0171051</v>
+        <v>2.0171051000000002</v>
       </c>
       <c r="R37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I38">
         <v>8227</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P38">
-        <v>41.556909</v>
+        <v>41.556908999999997</v>
       </c>
       <c r="Q38">
         <v>2.0526339</v>
       </c>
       <c r="R38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H39">
         <v>62</v>
@@ -4019,379 +4071,379 @@
         <v>8402</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P39">
-        <v>41.6138264</v>
+        <v>41.613826400000001</v>
       </c>
       <c r="Q39">
         <v>2.2957912</v>
       </c>
       <c r="R39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X39" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I40">
         <v>8100</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P40">
-        <v>41.5437081</v>
+        <v>41.543708100000003</v>
       </c>
       <c r="Q40">
         <v>2.2021875</v>
       </c>
       <c r="R40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X40" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I41">
         <v>8470</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P41">
-        <v>41.6877204</v>
+        <v>41.687720400000003</v>
       </c>
       <c r="Q41">
-        <v>2.4858784</v>
+        <v>2.4858783999999998</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I42">
         <v>43800</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P42">
-        <v>41.2829985</v>
+        <v>41.282998499999998</v>
       </c>
       <c r="Q42">
-        <v>1.2508547</v>
+        <v>1.2508547000000001</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I43">
         <v>43203</v>
       </c>
       <c r="J43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P43">
-        <v>41.160398</v>
+        <v>41.160398000000001</v>
       </c>
       <c r="Q43">
         <v>1.1062755</v>
       </c>
       <c r="T43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I44">
         <v>43204</v>
       </c>
       <c r="J44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P44">
-        <v>41.1450574</v>
+        <v>41.145057399999999</v>
       </c>
       <c r="Q44">
         <v>1.1230392</v>
       </c>
       <c r="R44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X44" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I45">
         <v>43700</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P45">
-        <v>41.2269179</v>
+        <v>41.226917899999997</v>
       </c>
       <c r="Q45">
         <v>1.5537447</v>
@@ -4400,243 +4452,243 @@
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U45">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X45" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I46">
         <v>43003</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P46">
-        <v>41.1162616</v>
+        <v>41.116261600000001</v>
       </c>
       <c r="Q46">
         <v>1.254885</v>
       </c>
       <c r="R46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X46" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I47">
         <v>43005</v>
       </c>
       <c r="J47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P47">
-        <v>41.1242189</v>
+        <v>41.124218900000002</v>
       </c>
       <c r="Q47">
-        <v>1.2385315</v>
+        <v>1.2385314999999999</v>
       </c>
       <c r="R47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I48">
         <v>8700</v>
       </c>
       <c r="J48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P48">
-        <v>41.5887105</v>
+        <v>41.588710499999998</v>
       </c>
       <c r="Q48">
         <v>1.6200733</v>
       </c>
       <c r="R48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I49">
         <v>8243</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P49">
         <v>41.7205297</v>
@@ -4645,1199 +4697,1199 @@
         <v>1.8374283</v>
       </c>
       <c r="R49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I50">
         <v>8600</v>
       </c>
       <c r="J50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P50">
-        <v>42.1064742</v>
+        <v>42.106474200000001</v>
       </c>
       <c r="Q50">
-        <v>1.8521815</v>
+        <v>1.8521814999999999</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I51">
         <v>8500</v>
       </c>
       <c r="J51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P51">
-        <v>41.936675</v>
+        <v>41.936675000000001</v>
       </c>
       <c r="Q51">
         <v>2.2602905</v>
       </c>
       <c r="R51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I52">
         <v>17600</v>
       </c>
       <c r="J52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P52">
-        <v>42.2683545</v>
+        <v>42.268354500000001</v>
       </c>
       <c r="Q52">
         <v>2.9536167</v>
       </c>
       <c r="R52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X52" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53">
         <v>17230</v>
       </c>
       <c r="J53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P53">
         <v>41.8529099</v>
       </c>
       <c r="Q53">
-        <v>3.1317395</v>
+        <v>3.1317395000000001</v>
       </c>
       <c r="R53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I54">
         <v>17800</v>
       </c>
       <c r="J54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P54">
-        <v>42.1876367</v>
+        <v>42.187636699999999</v>
       </c>
       <c r="Q54">
-        <v>2.4675269</v>
+        <v>2.4675269000000002</v>
       </c>
       <c r="T54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U54">
         <v>1</v>
       </c>
       <c r="V54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X54" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I55">
         <v>17002</v>
       </c>
       <c r="J55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P55">
-        <v>41.9789831</v>
+        <v>41.978983100000001</v>
       </c>
       <c r="Q55">
         <v>2.8205928</v>
       </c>
       <c r="T55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I56">
         <v>17007</v>
       </c>
       <c r="J56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P56">
-        <v>41.9975709</v>
+        <v>41.997570899999999</v>
       </c>
       <c r="Q56">
-        <v>2.8199659</v>
+        <v>2.8199659000000001</v>
       </c>
       <c r="R56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I57">
         <v>17007</v>
       </c>
       <c r="J57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P57">
         <v>41.9979102</v>
       </c>
       <c r="Q57">
-        <v>2.8205523</v>
+        <v>2.8205523000000001</v>
       </c>
       <c r="T57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U57">
         <v>1</v>
       </c>
       <c r="V57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X57" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I58">
         <v>17190</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P58">
-        <v>41.9701295</v>
+        <v>41.970129499999999</v>
       </c>
       <c r="Q58">
-        <v>2.7983408</v>
+        <v>2.7983408000000001</v>
       </c>
       <c r="R58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I59">
         <v>8370</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P59">
-        <v>41.61506929999999</v>
+        <v>41.615069299999988</v>
       </c>
       <c r="Q59">
-        <v>2.6572059</v>
+        <v>2.6572059000000001</v>
       </c>
       <c r="T59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="X59" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I60">
         <v>17820</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P60">
-        <v>42.1147322</v>
+        <v>42.114732199999999</v>
       </c>
       <c r="Q60">
         <v>2.7612055</v>
       </c>
       <c r="T60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
       <c r="V60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X60" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I61">
         <v>17530</v>
       </c>
       <c r="J61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P61">
-        <v>42.2227</v>
+        <v>42.222700000000003</v>
       </c>
       <c r="Q61">
-        <v>2.16673</v>
+        <v>2.1667299999999998</v>
       </c>
       <c r="T61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U61">
         <v>1</v>
       </c>
       <c r="V61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X61" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I62">
         <v>17300</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P62">
         <v>41.6874368</v>
       </c>
       <c r="Q62">
-        <v>2.8019563</v>
+        <v>2.8019563000000001</v>
       </c>
       <c r="R62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X62" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I63">
         <v>25004</v>
       </c>
       <c r="J63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P63">
-        <v>41.62244889999999</v>
+        <v>41.622448899999988</v>
       </c>
       <c r="Q63">
-        <v>0.6268678999999999</v>
+        <v>0.62686789999999992</v>
       </c>
       <c r="T63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U63">
         <v>1</v>
       </c>
       <c r="V63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X63" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I64">
         <v>25198</v>
       </c>
       <c r="J64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P64">
         <v>41.6241105</v>
       </c>
       <c r="Q64">
-        <v>0.6182814</v>
+        <v>0.61828139999999998</v>
       </c>
       <c r="R64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X64" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I65">
         <v>25198</v>
       </c>
       <c r="J65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P65">
-        <v>41.6267005</v>
+        <v>41.626700499999998</v>
       </c>
       <c r="Q65">
-        <v>0.6133791</v>
+        <v>0.61337909999999995</v>
       </c>
       <c r="R65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I66">
         <v>43500</v>
       </c>
       <c r="J66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P66">
-        <v>40.8138312</v>
+        <v>40.813831200000003</v>
       </c>
       <c r="Q66">
-        <v>0.5162803</v>
+        <v>0.51628030000000003</v>
       </c>
       <c r="T66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="V66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X66" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I67">
         <v>43500</v>
       </c>
       <c r="J67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P67">
-        <v>40.81164</v>
+        <v>40.811639999999997</v>
       </c>
       <c r="Q67">
         <v>0.5242</v>
       </c>
       <c r="R67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X67" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I68">
         <v>43870</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P68">
-        <v>40.70892</v>
+        <v>40.708919999999999</v>
       </c>
       <c r="Q68">
-        <v>0.578303</v>
+        <v>0.57830300000000001</v>
       </c>
       <c r="T68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U68">
         <v>1</v>
       </c>
       <c r="V68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X68" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I69">
         <v>43740</v>
       </c>
       <c r="J69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K69" t="s">
         <v>343</v>
       </c>
-      <c r="K69" t="s">
-        <v>344</v>
-      </c>
       <c r="P69">
-        <v>41.094861</v>
+        <v>41.094861000000002</v>
       </c>
       <c r="Q69">
-        <v>0.638668</v>
+        <v>0.63866800000000001</v>
       </c>
       <c r="R69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U69">
         <v>1</v>
       </c>
       <c r="V69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/mii/hospitals/hospitals_catalunya_geocoded.xlsx
+++ b/mii/hospitals/hospitals_catalunya_geocoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciamug/Desktop/repos/regions-sanitaries-catalunya/mii/hospitals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C2E90-6CD5-5940-B498-5CADADFBF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFCF15B-B993-0541-8801-74EC36A2783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="430">
   <si>
     <t>Regió Sanitària</t>
   </si>
@@ -55,18 +55,6 @@
     <t>Horari</t>
   </si>
   <si>
-    <t>codi RS</t>
-  </si>
-  <si>
-    <t>descripcio RS</t>
-  </si>
-  <si>
-    <t>codi SS</t>
-  </si>
-  <si>
-    <t>descripcio SS</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -79,15 +67,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Tipus hospital v2</t>
-  </si>
-  <si>
-    <t>Descripció tipus hospital v2</t>
-  </si>
-  <si>
-    <t>Color v2</t>
-  </si>
-  <si>
     <t>Adreça completa</t>
   </si>
   <si>
@@ -1096,18 +1075,12 @@
     <t>Atenció d'urgències només de salut mental, per a tota la resta d'urgències adreceu-vos al CUAP Lleida o a l'Hospital Arnau de Vilanova.</t>
   </si>
   <si>
-    <t>No contestat</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
     <t>2b</t>
   </si>
   <si>
-    <t>No hi ha descripció</t>
-  </si>
-  <si>
     <t>Sense servei de digestiu</t>
   </si>
   <si>
@@ -1126,34 +1099,10 @@
     <t>red</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>green</t>
   </si>
   <si>
     <t>blue</t>
-  </si>
-  <si>
-    <t>Clarament té servei de digestiu I la web parla d'especialització en MII. Javier Martín de Carpi</t>
-  </si>
-  <si>
-    <t>Té servei de digestiu. Maria Àngels Escorsell Mañosa. Cap de Servei Mancomunat Digestiu HDM_HSP.</t>
-  </si>
-  <si>
-    <t>Tenen servei de digestiu. Ingrid Ordas Jimenez</t>
-  </si>
-  <si>
-    <t>Unitat acreditada per Bureau Veritas (GETTECU) amb qualificació exel.lent. Alejandro Blasco Pelicano. Cap de servei. https://www.csi.cat/media/upload//arxius/centres/broggi/Serveis/Digestiu.pdf</t>
-  </si>
-  <si>
-    <t>Com a mínim té servei de digestiu. Noms d'especialistes aquí: https://www.clinicagirona.cat/wp-content/uploads/2021/10/Quadre_medic_especialitats.pdf</t>
-  </si>
-  <si>
-    <t>Com a mínim té servei de digestiu. https://salutms.cat/servei/digestologia/ Coordinador digestiu: Dr. Josep Maria Castellví</t>
   </si>
   <si>
     <t>Fundació Sant Hospital, 25700, La Seu d'Urgell , Spain</t>
@@ -1762,15 +1711,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="O51" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="66.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,63 +1769,42 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1873,63 +1813,51 @@
         <v>25700</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L2">
-        <v>71</v>
-      </c>
-      <c r="P2">
         <v>42.354861300000003</v>
       </c>
-      <c r="Q2">
+      <c r="M2">
         <v>1.4608840000000001</v>
       </c>
-      <c r="R2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" t="s">
         <v>358</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Q2" t="s">
         <v>361</v>
       </c>
-      <c r="T2" t="s">
-        <v>366</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>362</v>
-      </c>
-      <c r="W2" t="s">
-        <v>367</v>
-      </c>
-      <c r="X2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -1938,60 +1866,51 @@
         <v>17520</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>343</v>
-      </c>
-      <c r="P3">
+        <v>336</v>
+      </c>
+      <c r="L3">
         <v>42.4440454</v>
       </c>
-      <c r="Q3">
+      <c r="M3">
         <v>1.9302992999999999</v>
       </c>
-      <c r="R3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="O3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P3" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" t="s">
         <v>362</v>
       </c>
-      <c r="T3" t="s">
-        <v>367</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>362</v>
-      </c>
-      <c r="W3" t="s">
-        <v>367</v>
-      </c>
-      <c r="X3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2000,60 +1919,51 @@
         <v>25620</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K4" t="s">
-        <v>343</v>
-      </c>
-      <c r="P4">
+        <v>336</v>
+      </c>
+      <c r="L4">
         <v>42.164433500000001</v>
       </c>
-      <c r="Q4">
+      <c r="M4">
         <v>0.89732259999999997</v>
       </c>
-      <c r="R4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P4" t="s">
         <v>358</v>
       </c>
-      <c r="S4" t="s">
-        <v>361</v>
-      </c>
-      <c r="T4" t="s">
-        <v>366</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>362</v>
-      </c>
-      <c r="W4" t="s">
-        <v>367</v>
-      </c>
-      <c r="X4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -2062,60 +1972,51 @@
         <v>25530</v>
       </c>
       <c r="J5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K5" t="s">
-        <v>343</v>
-      </c>
-      <c r="P5">
+        <v>336</v>
+      </c>
+      <c r="L5">
         <v>42.701725199999998</v>
       </c>
-      <c r="Q5">
+      <c r="M5">
         <v>0.79729969999999994</v>
       </c>
-      <c r="R5" t="s">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P5" t="s">
         <v>358</v>
       </c>
-      <c r="S5" t="s">
-        <v>361</v>
-      </c>
-      <c r="T5" t="s">
-        <v>366</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>362</v>
-      </c>
-      <c r="W5" t="s">
-        <v>367</v>
-      </c>
-      <c r="X5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2124,60 +2025,51 @@
         <v>8720</v>
       </c>
       <c r="J6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
-      </c>
-      <c r="P6">
+        <v>336</v>
+      </c>
+      <c r="L6">
         <v>41.356360299999999</v>
       </c>
-      <c r="Q6">
+      <c r="M6">
         <v>1.7049285999999999</v>
       </c>
-      <c r="R6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
-        <v>362</v>
-      </c>
-      <c r="T6" t="s">
-        <v>367</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
-        <v>362</v>
-      </c>
-      <c r="W6" t="s">
-        <v>367</v>
-      </c>
-      <c r="X6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>353</v>
+      </c>
+      <c r="P6" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2186,45 +2078,48 @@
         <v>8950</v>
       </c>
       <c r="K7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P7">
+        <v>336</v>
+      </c>
+      <c r="L7">
         <v>41.384265800000001</v>
       </c>
-      <c r="Q7">
+      <c r="M7">
         <v>2.1019416999999998</v>
       </c>
-      <c r="T7" t="s">
-        <v>368</v>
-      </c>
-      <c r="V7" t="s">
-        <v>372</v>
-      </c>
-      <c r="X7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2233,60 +2128,51 @@
         <v>8760</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K8" t="s">
-        <v>343</v>
-      </c>
-      <c r="P8">
+        <v>336</v>
+      </c>
+      <c r="L8">
         <v>41.471792099999988</v>
       </c>
-      <c r="Q8">
+      <c r="M8">
         <v>1.9203068000000001</v>
       </c>
-      <c r="R8" t="s">
-        <v>359</v>
-      </c>
-      <c r="S8" t="s">
-        <v>363</v>
-      </c>
-      <c r="T8" t="s">
-        <v>369</v>
-      </c>
-      <c r="U8" t="s">
-        <v>359</v>
-      </c>
-      <c r="V8" t="s">
-        <v>363</v>
-      </c>
-      <c r="W8" t="s">
-        <v>366</v>
-      </c>
-      <c r="X8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>351</v>
+      </c>
+      <c r="O8" t="s">
+        <v>354</v>
+      </c>
+      <c r="P8" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -2295,60 +2181,51 @@
         <v>8830</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K9" t="s">
-        <v>343</v>
-      </c>
-      <c r="P9">
+        <v>336</v>
+      </c>
+      <c r="L9">
         <v>41.3527694</v>
       </c>
-      <c r="Q9">
+      <c r="M9">
         <v>2.0343738999999998</v>
       </c>
-      <c r="R9" t="s">
-        <v>359</v>
-      </c>
-      <c r="S9" t="s">
-        <v>363</v>
-      </c>
-      <c r="T9" t="s">
-        <v>369</v>
-      </c>
-      <c r="U9" t="s">
-        <v>359</v>
-      </c>
-      <c r="V9" t="s">
-        <v>363</v>
-      </c>
-      <c r="W9" t="s">
-        <v>366</v>
-      </c>
-      <c r="X9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>351</v>
+      </c>
+      <c r="O9" t="s">
+        <v>354</v>
+      </c>
+      <c r="P9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -2357,60 +2234,51 @@
         <v>8970</v>
       </c>
       <c r="J10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>343</v>
-      </c>
-      <c r="P10">
+        <v>336</v>
+      </c>
+      <c r="L10">
         <v>41.3733164</v>
       </c>
-      <c r="Q10">
+      <c r="M10">
         <v>2.0725156999999998</v>
       </c>
-      <c r="R10" t="s">
-        <v>360</v>
-      </c>
-      <c r="S10" t="s">
-        <v>364</v>
-      </c>
-      <c r="T10" t="s">
-        <v>370</v>
-      </c>
-      <c r="U10" t="s">
-        <v>360</v>
-      </c>
-      <c r="V10" t="s">
-        <v>364</v>
-      </c>
-      <c r="W10" t="s">
-        <v>370</v>
-      </c>
-      <c r="X10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>352</v>
+      </c>
+      <c r="O10" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H11">
         <v>38</v>
@@ -2419,1526 +2287,1376 @@
         <v>8840</v>
       </c>
       <c r="J11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K11" t="s">
-        <v>343</v>
-      </c>
-      <c r="P11">
+        <v>336</v>
+      </c>
+      <c r="L11">
         <v>41.312458199999988</v>
       </c>
-      <c r="Q11">
+      <c r="M11">
         <v>2.0146535999999999</v>
       </c>
-      <c r="R11" t="s">
-        <v>360</v>
-      </c>
-      <c r="S11" t="s">
-        <v>364</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="N11" t="s">
+        <v>352</v>
+      </c>
+      <c r="O11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P11" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q11" t="s">
         <v>370</v>
       </c>
-      <c r="U11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V11" t="s">
-        <v>364</v>
-      </c>
-      <c r="W11" t="s">
-        <v>370</v>
-      </c>
-      <c r="X11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I12">
         <v>8911</v>
       </c>
       <c r="J12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K12" t="s">
-        <v>343</v>
-      </c>
-      <c r="P12">
+        <v>336</v>
+      </c>
+      <c r="L12">
         <v>41.450493399999999</v>
       </c>
-      <c r="Q12">
+      <c r="M12">
         <v>2.2456070000000001</v>
       </c>
-      <c r="R12">
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="S12" t="s">
-        <v>362</v>
-      </c>
-      <c r="T12" t="s">
-        <v>367</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>362</v>
-      </c>
-      <c r="W12" t="s">
-        <v>367</v>
-      </c>
-      <c r="X12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>353</v>
+      </c>
+      <c r="P12" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <v>8916</v>
       </c>
       <c r="J13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K13" t="s">
-        <v>343</v>
-      </c>
-      <c r="P13">
+        <v>336</v>
+      </c>
+      <c r="L13">
         <v>41.481186999999998</v>
       </c>
-      <c r="Q13">
+      <c r="M13">
         <v>2.2375473000000001</v>
       </c>
-      <c r="R13" t="s">
-        <v>360</v>
-      </c>
-      <c r="S13" t="s">
-        <v>364</v>
-      </c>
-      <c r="T13" t="s">
-        <v>370</v>
-      </c>
-      <c r="U13" t="s">
-        <v>360</v>
-      </c>
-      <c r="V13" t="s">
-        <v>364</v>
-      </c>
-      <c r="W13" t="s">
-        <v>370</v>
-      </c>
-      <c r="X13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>352</v>
+      </c>
+      <c r="O13" t="s">
+        <v>355</v>
+      </c>
+      <c r="P13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I14">
         <v>8917</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
-        <v>343</v>
-      </c>
-      <c r="P14">
+        <v>336</v>
+      </c>
+      <c r="L14">
         <v>41.446964000000001</v>
       </c>
-      <c r="Q14">
+      <c r="M14">
         <v>2.2449607</v>
       </c>
-      <c r="T14" t="s">
-        <v>368</v>
-      </c>
-      <c r="U14">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="V14" t="s">
-        <v>362</v>
-      </c>
-      <c r="W14" t="s">
-        <v>367</v>
-      </c>
-      <c r="X14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>353</v>
+      </c>
+      <c r="P14" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I15">
         <v>8918</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K15" t="s">
-        <v>343</v>
-      </c>
-      <c r="P15">
+        <v>336</v>
+      </c>
+      <c r="L15">
         <v>41.478625299999997</v>
       </c>
-      <c r="Q15">
+      <c r="M15">
         <v>2.2368877</v>
       </c>
-      <c r="T15" t="s">
-        <v>368</v>
-      </c>
-      <c r="U15">
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="V15" t="s">
-        <v>362</v>
-      </c>
-      <c r="W15" t="s">
-        <v>367</v>
-      </c>
-      <c r="X15" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>353</v>
+      </c>
+      <c r="P15" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I16">
         <v>8025</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K16" t="s">
-        <v>343</v>
-      </c>
-      <c r="P16">
+        <v>336</v>
+      </c>
+      <c r="L16">
         <v>41.412798600000002</v>
       </c>
-      <c r="Q16">
+      <c r="M16">
         <v>2.1724597000000001</v>
       </c>
-      <c r="T16" t="s">
-        <v>368</v>
-      </c>
-      <c r="U16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="V16" t="s">
-        <v>362</v>
-      </c>
-      <c r="W16" t="s">
-        <v>367</v>
-      </c>
-      <c r="X16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I17">
         <v>8036</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>343</v>
-      </c>
-      <c r="P17">
+        <v>336</v>
+      </c>
+      <c r="L17">
         <v>41.3894436</v>
       </c>
-      <c r="Q17">
+      <c r="M17">
         <v>2.1523118999999999</v>
       </c>
-      <c r="R17">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="S17" t="s">
-        <v>365</v>
-      </c>
-      <c r="T17" t="s">
-        <v>371</v>
-      </c>
-      <c r="U17">
-        <v>3</v>
-      </c>
-      <c r="V17" t="s">
-        <v>365</v>
-      </c>
-      <c r="W17" t="s">
-        <v>371</v>
-      </c>
-      <c r="X17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I18">
         <v>8028</v>
       </c>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K18" t="s">
-        <v>344</v>
-      </c>
-      <c r="P18">
+        <v>337</v>
+      </c>
+      <c r="L18">
         <v>41.385286899999997</v>
       </c>
-      <c r="Q18">
+      <c r="M18">
         <v>2.1233659</v>
       </c>
-      <c r="T18" t="s">
-        <v>368</v>
-      </c>
-      <c r="U18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="V18" t="s">
-        <v>362</v>
-      </c>
-      <c r="W18" t="s">
-        <v>367</v>
-      </c>
-      <c r="X18" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>353</v>
+      </c>
+      <c r="P18" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I19">
         <v>8025</v>
       </c>
       <c r="J19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K19" t="s">
-        <v>345</v>
-      </c>
-      <c r="P19">
+        <v>338</v>
+      </c>
+      <c r="L19">
         <v>41.410538699999996</v>
       </c>
-      <c r="Q19">
+      <c r="M19">
         <v>2.1771536999999999</v>
       </c>
-      <c r="R19" t="s">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>353</v>
+      </c>
+      <c r="P19" t="s">
         <v>358</v>
       </c>
-      <c r="S19" t="s">
-        <v>361</v>
-      </c>
-      <c r="T19" t="s">
-        <v>366</v>
-      </c>
-      <c r="V19" t="s">
-        <v>373</v>
-      </c>
-      <c r="X19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I20">
         <v>8006</v>
       </c>
       <c r="J20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K20" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20">
+        <v>339</v>
+      </c>
+      <c r="L20">
         <v>41.401191999999988</v>
       </c>
-      <c r="Q20">
+      <c r="M20">
         <v>2.1422907000000002</v>
       </c>
-      <c r="R20" t="s">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" t="s">
         <v>358</v>
       </c>
-      <c r="S20" t="s">
-        <v>361</v>
-      </c>
-      <c r="T20" t="s">
-        <v>366</v>
-      </c>
-      <c r="V20" t="s">
-        <v>374</v>
-      </c>
-      <c r="X20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I21">
         <v>8035</v>
       </c>
       <c r="J21" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21">
+        <v>340</v>
+      </c>
+      <c r="L21">
         <v>41.425639099999998</v>
       </c>
-      <c r="Q21">
+      <c r="M21">
         <v>2.1409433</v>
       </c>
-      <c r="T21" t="s">
-        <v>368</v>
-      </c>
-      <c r="U21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="V21" t="s">
-        <v>362</v>
-      </c>
-      <c r="W21" t="s">
-        <v>367</v>
-      </c>
-      <c r="X21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>353</v>
+      </c>
+      <c r="P21" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I22">
         <v>8035</v>
       </c>
       <c r="J22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K22" t="s">
-        <v>343</v>
-      </c>
-      <c r="P22">
+        <v>336</v>
+      </c>
+      <c r="L22">
         <v>41.427687400000003</v>
       </c>
-      <c r="Q22">
+      <c r="M22">
         <v>2.1423868000000001</v>
       </c>
-      <c r="R22">
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="S22" t="s">
-        <v>365</v>
-      </c>
-      <c r="T22" t="s">
-        <v>371</v>
-      </c>
-      <c r="U22">
-        <v>3</v>
-      </c>
-      <c r="V22" t="s">
-        <v>365</v>
-      </c>
-      <c r="W22" t="s">
-        <v>371</v>
-      </c>
-      <c r="X22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>356</v>
+      </c>
+      <c r="P22" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I23">
         <v>8036</v>
       </c>
       <c r="J23" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K23" t="s">
-        <v>343</v>
-      </c>
-      <c r="P23">
+        <v>336</v>
+      </c>
+      <c r="L23">
         <v>41.428346100000013</v>
       </c>
-      <c r="Q23">
+      <c r="M23">
         <v>2.1424300000000001</v>
       </c>
-      <c r="T23" t="s">
-        <v>368</v>
-      </c>
-      <c r="U23">
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="V23" t="s">
-        <v>362</v>
-      </c>
-      <c r="W23" t="s">
-        <v>367</v>
-      </c>
-      <c r="X23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>353</v>
+      </c>
+      <c r="P23" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I24">
         <v>8029</v>
       </c>
       <c r="J24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
-        <v>348</v>
-      </c>
-      <c r="P24">
+        <v>341</v>
+      </c>
+      <c r="L24">
         <v>41.388908399999998</v>
       </c>
-      <c r="Q24">
+      <c r="M24">
         <v>2.1456526999999999</v>
       </c>
-      <c r="R24" t="s">
-        <v>359</v>
-      </c>
-      <c r="S24" t="s">
-        <v>363</v>
-      </c>
-      <c r="T24" t="s">
-        <v>369</v>
-      </c>
-      <c r="U24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>363</v>
-      </c>
-      <c r="W24" t="s">
-        <v>366</v>
-      </c>
-      <c r="X24" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>351</v>
+      </c>
+      <c r="O24" t="s">
+        <v>354</v>
+      </c>
+      <c r="P24" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I25">
         <v>8035</v>
       </c>
       <c r="J25" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K25" t="s">
-        <v>343</v>
-      </c>
-      <c r="P25">
+        <v>336</v>
+      </c>
+      <c r="L25">
         <v>41.427379500000001</v>
       </c>
-      <c r="Q25">
+      <c r="M25">
         <v>2.1397412</v>
       </c>
-      <c r="T25" t="s">
-        <v>368</v>
-      </c>
-      <c r="U25">
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
-        <v>362</v>
-      </c>
-      <c r="W25" t="s">
-        <v>367</v>
-      </c>
-      <c r="X25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>353</v>
+      </c>
+      <c r="P25" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I26">
         <v>8024</v>
       </c>
       <c r="J26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K26" t="s">
-        <v>349</v>
-      </c>
-      <c r="P26">
+        <v>342</v>
+      </c>
+      <c r="L26">
         <v>41.410722700000001</v>
       </c>
-      <c r="Q26">
+      <c r="M26">
         <v>2.1545071</v>
       </c>
-      <c r="T26" t="s">
-        <v>368</v>
-      </c>
-      <c r="U26">
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="V26" t="s">
-        <v>362</v>
-      </c>
-      <c r="W26" t="s">
-        <v>367</v>
-      </c>
-      <c r="X26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I27">
         <v>8041</v>
       </c>
       <c r="J27" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K27" t="s">
-        <v>343</v>
-      </c>
-      <c r="P27">
+        <v>336</v>
+      </c>
+      <c r="L27">
         <v>41.413699700000002</v>
       </c>
-      <c r="Q27">
+      <c r="M27">
         <v>2.1743139999999999</v>
       </c>
-      <c r="R27" t="s">
-        <v>360</v>
-      </c>
-      <c r="S27" t="s">
-        <v>364</v>
-      </c>
-      <c r="T27" t="s">
-        <v>370</v>
-      </c>
-      <c r="U27" t="s">
-        <v>360</v>
-      </c>
-      <c r="V27" t="s">
-        <v>364</v>
-      </c>
-      <c r="W27" t="s">
-        <v>370</v>
-      </c>
-      <c r="X27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>352</v>
+      </c>
+      <c r="O27" t="s">
+        <v>355</v>
+      </c>
+      <c r="P27" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I28">
         <v>8003</v>
       </c>
       <c r="J28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>343</v>
-      </c>
-      <c r="P28">
+        <v>336</v>
+      </c>
+      <c r="L28">
         <v>41.384511799999999</v>
       </c>
-      <c r="Q28">
+      <c r="M28">
         <v>2.1939044999999999</v>
       </c>
-      <c r="R28" t="s">
-        <v>360</v>
-      </c>
-      <c r="S28" t="s">
-        <v>364</v>
-      </c>
-      <c r="T28" t="s">
-        <v>370</v>
-      </c>
-      <c r="U28" t="s">
-        <v>360</v>
-      </c>
-      <c r="V28" t="s">
-        <v>364</v>
-      </c>
-      <c r="W28" t="s">
-        <v>370</v>
-      </c>
-      <c r="X28" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>352</v>
+      </c>
+      <c r="O28" t="s">
+        <v>355</v>
+      </c>
+      <c r="P28" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I29">
         <v>8906</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>343</v>
-      </c>
-      <c r="P29">
+        <v>336</v>
+      </c>
+      <c r="L29">
         <v>41.374336499999998</v>
       </c>
-      <c r="Q29">
+      <c r="M29">
         <v>2.1065586000000001</v>
       </c>
-      <c r="T29" t="s">
-        <v>368</v>
-      </c>
-      <c r="V29" t="s">
-        <v>375</v>
-      </c>
-      <c r="X29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>353</v>
+      </c>
+      <c r="P29" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I30">
         <v>8907</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s">
-        <v>343</v>
-      </c>
-      <c r="P30">
+        <v>336</v>
+      </c>
+      <c r="L30">
         <v>41.344766100000001</v>
       </c>
-      <c r="Q30">
+      <c r="M30">
         <v>2.1042318999999998</v>
       </c>
-      <c r="R30">
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="S30" t="s">
-        <v>365</v>
-      </c>
-      <c r="T30" t="s">
-        <v>371</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30" t="s">
-        <v>365</v>
-      </c>
-      <c r="W30" t="s">
-        <v>371</v>
-      </c>
-      <c r="X30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>356</v>
+      </c>
+      <c r="P30" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I31">
         <v>8908</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>350</v>
-      </c>
-      <c r="P31">
+        <v>343</v>
+      </c>
+      <c r="L31">
         <v>41.345760899999988</v>
       </c>
-      <c r="Q31">
+      <c r="M31">
         <v>2.1114568</v>
       </c>
-      <c r="T31" t="s">
-        <v>368</v>
-      </c>
-      <c r="U31">
+      <c r="N31">
         <v>1</v>
       </c>
-      <c r="V31" t="s">
-        <v>362</v>
-      </c>
-      <c r="W31" t="s">
-        <v>367</v>
-      </c>
-      <c r="X31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I32">
         <v>8923</v>
       </c>
       <c r="J32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
+        <v>344</v>
+      </c>
+      <c r="L32">
+        <v>41.437933899999997</v>
+      </c>
+      <c r="M32">
+        <v>2.2132304999999999</v>
+      </c>
+      <c r="N32" t="s">
         <v>351</v>
       </c>
-      <c r="P32">
-        <v>41.437933899999997</v>
-      </c>
-      <c r="Q32">
-        <v>2.2132304999999999</v>
-      </c>
-      <c r="R32" t="s">
-        <v>359</v>
-      </c>
-      <c r="S32" t="s">
-        <v>363</v>
-      </c>
-      <c r="T32" t="s">
-        <v>369</v>
-      </c>
-      <c r="U32" t="s">
-        <v>359</v>
-      </c>
-      <c r="V32" t="s">
-        <v>363</v>
-      </c>
-      <c r="W32" t="s">
-        <v>366</v>
-      </c>
-      <c r="X32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>354</v>
+      </c>
+      <c r="P32" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I33">
         <v>8810</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
-      </c>
-      <c r="P33">
+        <v>344</v>
+      </c>
+      <c r="L33">
         <v>41.253937000000001</v>
       </c>
-      <c r="Q33">
+      <c r="M33">
         <v>1.7653236000000001</v>
       </c>
-      <c r="R33">
+      <c r="N33">
         <v>1</v>
       </c>
-      <c r="S33" t="s">
-        <v>362</v>
-      </c>
-      <c r="T33" t="s">
-        <v>367</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
-        <v>362</v>
-      </c>
-      <c r="W33" t="s">
-        <v>367</v>
-      </c>
-      <c r="X33" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>353</v>
+      </c>
+      <c r="P33" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H34" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I34">
         <v>8800</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
-      </c>
-      <c r="P34">
+        <v>344</v>
+      </c>
+      <c r="L34">
         <v>41.228814999999997</v>
       </c>
-      <c r="Q34">
+      <c r="M34">
         <v>1.7219447999999999</v>
       </c>
-      <c r="T34" t="s">
-        <v>368</v>
-      </c>
-      <c r="U34">
+      <c r="N34">
         <v>1</v>
       </c>
-      <c r="V34" t="s">
-        <v>362</v>
-      </c>
-      <c r="W34" t="s">
-        <v>367</v>
-      </c>
-      <c r="X34" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>353</v>
+      </c>
+      <c r="P34" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I35">
         <v>8304</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
-      </c>
-      <c r="P35">
+        <v>336</v>
+      </c>
+      <c r="L35">
         <v>41.556113099999997</v>
       </c>
-      <c r="Q35">
+      <c r="M35">
         <v>2.4297713999999999</v>
       </c>
-      <c r="R35" t="s">
-        <v>359</v>
-      </c>
-      <c r="S35" t="s">
-        <v>363</v>
-      </c>
-      <c r="T35" t="s">
-        <v>369</v>
-      </c>
-      <c r="U35" t="s">
-        <v>359</v>
-      </c>
-      <c r="V35" t="s">
-        <v>363</v>
-      </c>
-      <c r="W35" t="s">
-        <v>366</v>
-      </c>
-      <c r="X35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>351</v>
+      </c>
+      <c r="O35" t="s">
+        <v>354</v>
+      </c>
+      <c r="P35" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I36">
         <v>8208</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
-      </c>
-      <c r="P36">
+        <v>336</v>
+      </c>
+      <c r="L36">
         <v>41.5570752</v>
       </c>
-      <c r="Q36">
+      <c r="M36">
         <v>2.1098612000000001</v>
       </c>
-      <c r="R36" t="s">
-        <v>360</v>
-      </c>
-      <c r="S36" t="s">
-        <v>364</v>
-      </c>
-      <c r="T36" t="s">
-        <v>370</v>
-      </c>
-      <c r="U36" t="s">
-        <v>360</v>
-      </c>
-      <c r="V36" t="s">
-        <v>364</v>
-      </c>
-      <c r="W36" t="s">
-        <v>370</v>
-      </c>
-      <c r="X36" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>352</v>
+      </c>
+      <c r="O36" t="s">
+        <v>355</v>
+      </c>
+      <c r="P36" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3947,122 +3665,104 @@
         <v>8221</v>
       </c>
       <c r="J37" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
-      </c>
-      <c r="P37">
+        <v>336</v>
+      </c>
+      <c r="L37">
         <v>41.563857599999999</v>
       </c>
-      <c r="Q37">
+      <c r="M37">
         <v>2.0171051000000002</v>
       </c>
-      <c r="R37" t="s">
-        <v>360</v>
-      </c>
-      <c r="S37" t="s">
-        <v>364</v>
-      </c>
-      <c r="T37" t="s">
-        <v>370</v>
-      </c>
-      <c r="U37" t="s">
-        <v>360</v>
-      </c>
-      <c r="V37" t="s">
-        <v>364</v>
-      </c>
-      <c r="W37" t="s">
-        <v>370</v>
-      </c>
-      <c r="X37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>355</v>
+      </c>
+      <c r="P37" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I38">
         <v>8227</v>
       </c>
       <c r="J38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>343</v>
-      </c>
-      <c r="P38">
+        <v>336</v>
+      </c>
+      <c r="L38">
         <v>41.556908999999997</v>
       </c>
-      <c r="Q38">
+      <c r="M38">
         <v>2.0526339</v>
       </c>
-      <c r="R38" t="s">
-        <v>360</v>
-      </c>
-      <c r="S38" t="s">
-        <v>364</v>
-      </c>
-      <c r="T38" t="s">
-        <v>370</v>
-      </c>
-      <c r="U38" t="s">
-        <v>360</v>
-      </c>
-      <c r="V38" t="s">
-        <v>364</v>
-      </c>
-      <c r="W38" t="s">
-        <v>370</v>
-      </c>
-      <c r="X38" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>355</v>
+      </c>
+      <c r="P38" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H39">
         <v>62</v>
@@ -4071,1825 +3771,1615 @@
         <v>8402</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
-      </c>
-      <c r="P39">
+        <v>336</v>
+      </c>
+      <c r="L39">
         <v>41.613826400000001</v>
       </c>
-      <c r="Q39">
+      <c r="M39">
         <v>2.2957912</v>
       </c>
-      <c r="R39" t="s">
-        <v>359</v>
-      </c>
-      <c r="S39" t="s">
-        <v>363</v>
-      </c>
-      <c r="T39" t="s">
-        <v>369</v>
-      </c>
-      <c r="U39" t="s">
-        <v>359</v>
-      </c>
-      <c r="V39" t="s">
-        <v>363</v>
-      </c>
-      <c r="W39" t="s">
-        <v>366</v>
-      </c>
-      <c r="X39" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>351</v>
+      </c>
+      <c r="O39" t="s">
+        <v>354</v>
+      </c>
+      <c r="P39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I40">
         <v>8100</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
-      </c>
-      <c r="P40">
+        <v>336</v>
+      </c>
+      <c r="L40">
         <v>41.543708100000003</v>
       </c>
-      <c r="Q40">
+      <c r="M40">
         <v>2.2021875</v>
       </c>
-      <c r="R40" t="s">
-        <v>359</v>
-      </c>
-      <c r="S40" t="s">
-        <v>363</v>
-      </c>
-      <c r="T40" t="s">
-        <v>369</v>
-      </c>
-      <c r="U40" t="s">
-        <v>359</v>
-      </c>
-      <c r="V40" t="s">
-        <v>363</v>
-      </c>
-      <c r="W40" t="s">
-        <v>366</v>
-      </c>
-      <c r="X40" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>354</v>
+      </c>
+      <c r="P40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I41">
         <v>8470</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
-      </c>
-      <c r="P41">
+        <v>336</v>
+      </c>
+      <c r="L41">
         <v>41.687720400000003</v>
       </c>
-      <c r="Q41">
+      <c r="M41">
         <v>2.4858783999999998</v>
       </c>
-      <c r="R41">
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="S41" t="s">
-        <v>362</v>
-      </c>
-      <c r="T41" t="s">
-        <v>367</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41" t="s">
-        <v>362</v>
-      </c>
-      <c r="W41" t="s">
-        <v>367</v>
-      </c>
-      <c r="X41" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>353</v>
+      </c>
+      <c r="P41" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I42">
         <v>43800</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s">
-        <v>343</v>
-      </c>
-      <c r="P42">
+        <v>336</v>
+      </c>
+      <c r="L42">
         <v>41.282998499999998</v>
       </c>
-      <c r="Q42">
+      <c r="M42">
         <v>1.2508547000000001</v>
       </c>
-      <c r="R42">
+      <c r="N42">
         <v>1</v>
       </c>
-      <c r="S42" t="s">
-        <v>362</v>
-      </c>
-      <c r="T42" t="s">
-        <v>367</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
-        <v>362</v>
-      </c>
-      <c r="W42" t="s">
-        <v>367</v>
-      </c>
-      <c r="X42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>353</v>
+      </c>
+      <c r="P42" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I43">
         <v>43203</v>
       </c>
       <c r="J43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
-      </c>
-      <c r="P43">
+        <v>345</v>
+      </c>
+      <c r="L43">
         <v>41.160398000000001</v>
       </c>
-      <c r="Q43">
+      <c r="M43">
         <v>1.1062755</v>
       </c>
-      <c r="T43" t="s">
-        <v>368</v>
-      </c>
-      <c r="U43">
+      <c r="N43">
         <v>1</v>
       </c>
-      <c r="V43" t="s">
-        <v>362</v>
-      </c>
-      <c r="W43" t="s">
-        <v>367</v>
-      </c>
-      <c r="X43" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>353</v>
+      </c>
+      <c r="P43" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I44">
         <v>43204</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
-      </c>
-      <c r="P44">
+        <v>336</v>
+      </c>
+      <c r="L44">
         <v>41.145057399999999</v>
       </c>
-      <c r="Q44">
+      <c r="M44">
         <v>1.1230392</v>
       </c>
-      <c r="R44" t="s">
-        <v>359</v>
-      </c>
-      <c r="S44" t="s">
-        <v>363</v>
-      </c>
-      <c r="T44" t="s">
-        <v>369</v>
-      </c>
-      <c r="U44" t="s">
-        <v>359</v>
-      </c>
-      <c r="V44" t="s">
-        <v>363</v>
-      </c>
-      <c r="W44" t="s">
-        <v>366</v>
-      </c>
-      <c r="X44" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>354</v>
+      </c>
+      <c r="P44" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I45">
         <v>43700</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
-      </c>
-      <c r="P45">
+        <v>336</v>
+      </c>
+      <c r="L45">
         <v>41.226917899999997</v>
       </c>
-      <c r="Q45">
+      <c r="M45">
         <v>1.5537447</v>
       </c>
-      <c r="R45">
+      <c r="N45">
         <v>1</v>
       </c>
-      <c r="S45" t="s">
-        <v>362</v>
-      </c>
-      <c r="T45" t="s">
-        <v>367</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45" t="s">
-        <v>362</v>
-      </c>
-      <c r="W45" t="s">
-        <v>367</v>
-      </c>
-      <c r="X45" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>353</v>
+      </c>
+      <c r="P45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I46">
         <v>43003</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
-      </c>
-      <c r="P46">
+        <v>336</v>
+      </c>
+      <c r="L46">
         <v>41.116261600000001</v>
       </c>
-      <c r="Q46">
+      <c r="M46">
         <v>1.254885</v>
       </c>
-      <c r="R46" t="s">
-        <v>359</v>
-      </c>
-      <c r="S46" t="s">
-        <v>363</v>
-      </c>
-      <c r="T46" t="s">
-        <v>369</v>
-      </c>
-      <c r="U46" t="s">
-        <v>359</v>
-      </c>
-      <c r="V46" t="s">
-        <v>363</v>
-      </c>
-      <c r="W46" t="s">
-        <v>366</v>
-      </c>
-      <c r="X46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P46" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I47">
         <v>43005</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s">
-        <v>343</v>
-      </c>
-      <c r="P47">
+        <v>336</v>
+      </c>
+      <c r="L47">
         <v>41.124218900000002</v>
       </c>
-      <c r="Q47">
+      <c r="M47">
         <v>1.2385314999999999</v>
       </c>
-      <c r="R47" t="s">
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>355</v>
+      </c>
+      <c r="P47" t="s">
         <v>359</v>
       </c>
-      <c r="S47" t="s">
-        <v>363</v>
-      </c>
-      <c r="T47" t="s">
-        <v>369</v>
-      </c>
-      <c r="U47" t="s">
-        <v>359</v>
-      </c>
-      <c r="V47" t="s">
-        <v>363</v>
-      </c>
-      <c r="W47" t="s">
-        <v>366</v>
-      </c>
-      <c r="X47" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I48">
         <v>8700</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
-      </c>
-      <c r="P48">
+        <v>336</v>
+      </c>
+      <c r="L48">
         <v>41.588710499999998</v>
       </c>
-      <c r="Q48">
+      <c r="M48">
         <v>1.6200733</v>
       </c>
-      <c r="R48" t="s">
-        <v>359</v>
-      </c>
-      <c r="S48" t="s">
-        <v>363</v>
-      </c>
-      <c r="T48" t="s">
-        <v>369</v>
-      </c>
-      <c r="U48" t="s">
-        <v>359</v>
-      </c>
-      <c r="V48" t="s">
-        <v>363</v>
-      </c>
-      <c r="W48" t="s">
-        <v>366</v>
-      </c>
-      <c r="X48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>354</v>
+      </c>
+      <c r="P48" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I49">
         <v>8243</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
-      </c>
-      <c r="P49">
+        <v>336</v>
+      </c>
+      <c r="L49">
         <v>41.7205297</v>
       </c>
-      <c r="Q49">
+      <c r="M49">
         <v>1.8374283</v>
       </c>
-      <c r="R49" t="s">
+      <c r="N49" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" t="s">
+        <v>355</v>
+      </c>
+      <c r="P49" t="s">
         <v>359</v>
       </c>
-      <c r="S49" t="s">
-        <v>363</v>
-      </c>
-      <c r="T49" t="s">
-        <v>369</v>
-      </c>
-      <c r="U49" t="s">
-        <v>359</v>
-      </c>
-      <c r="V49" t="s">
-        <v>363</v>
-      </c>
-      <c r="W49" t="s">
-        <v>366</v>
-      </c>
-      <c r="X49" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I50">
         <v>8600</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s">
-        <v>343</v>
-      </c>
-      <c r="P50">
+        <v>336</v>
+      </c>
+      <c r="L50">
         <v>42.106474200000001</v>
       </c>
-      <c r="Q50">
+      <c r="M50">
         <v>1.8521814999999999</v>
       </c>
-      <c r="R50">
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="S50" t="s">
-        <v>362</v>
-      </c>
-      <c r="T50" t="s">
-        <v>367</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50" t="s">
-        <v>362</v>
-      </c>
-      <c r="W50" t="s">
-        <v>367</v>
-      </c>
-      <c r="X50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>353</v>
+      </c>
+      <c r="P50" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I51">
         <v>8500</v>
       </c>
       <c r="J51" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s">
-        <v>343</v>
-      </c>
-      <c r="P51">
+        <v>336</v>
+      </c>
+      <c r="L51">
         <v>41.936675000000001</v>
       </c>
-      <c r="Q51">
+      <c r="M51">
         <v>2.2602905</v>
       </c>
-      <c r="R51" t="s">
-        <v>359</v>
-      </c>
-      <c r="S51" t="s">
-        <v>363</v>
-      </c>
-      <c r="T51" t="s">
-        <v>369</v>
-      </c>
-      <c r="U51" t="s">
-        <v>359</v>
-      </c>
-      <c r="V51" t="s">
-        <v>363</v>
-      </c>
-      <c r="W51" t="s">
-        <v>366</v>
-      </c>
-      <c r="X51" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>351</v>
+      </c>
+      <c r="O51" t="s">
+        <v>354</v>
+      </c>
+      <c r="P51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I52">
         <v>17600</v>
       </c>
       <c r="J52" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K52" t="s">
-        <v>343</v>
-      </c>
-      <c r="P52">
+        <v>336</v>
+      </c>
+      <c r="L52">
         <v>42.268354500000001</v>
       </c>
-      <c r="Q52">
+      <c r="M52">
         <v>2.9536167</v>
       </c>
-      <c r="R52" t="s">
-        <v>359</v>
-      </c>
-      <c r="S52" t="s">
-        <v>363</v>
-      </c>
-      <c r="T52" t="s">
-        <v>369</v>
-      </c>
-      <c r="U52" t="s">
-        <v>359</v>
-      </c>
-      <c r="V52" t="s">
-        <v>363</v>
-      </c>
-      <c r="W52" t="s">
-        <v>366</v>
-      </c>
-      <c r="X52" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>354</v>
+      </c>
+      <c r="P52" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I53">
         <v>17230</v>
       </c>
       <c r="J53" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s">
-        <v>343</v>
-      </c>
-      <c r="P53">
+        <v>336</v>
+      </c>
+      <c r="L53">
         <v>41.8529099</v>
       </c>
-      <c r="Q53">
+      <c r="M53">
         <v>3.1317395000000001</v>
       </c>
-      <c r="R53" t="s">
-        <v>359</v>
-      </c>
-      <c r="S53" t="s">
-        <v>363</v>
-      </c>
-      <c r="T53" t="s">
-        <v>369</v>
-      </c>
-      <c r="U53" t="s">
-        <v>359</v>
-      </c>
-      <c r="V53" t="s">
-        <v>363</v>
-      </c>
-      <c r="W53" t="s">
-        <v>366</v>
-      </c>
-      <c r="X53" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
+        <v>354</v>
+      </c>
+      <c r="P53" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I54">
         <v>17800</v>
       </c>
       <c r="J54" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s">
-        <v>343</v>
-      </c>
-      <c r="P54">
+        <v>336</v>
+      </c>
+      <c r="L54">
         <v>42.187636699999999</v>
       </c>
-      <c r="Q54">
+      <c r="M54">
         <v>2.4675269000000002</v>
       </c>
-      <c r="T54" t="s">
-        <v>368</v>
-      </c>
-      <c r="U54">
+      <c r="N54">
         <v>1</v>
       </c>
-      <c r="V54" t="s">
-        <v>362</v>
-      </c>
-      <c r="W54" t="s">
-        <v>367</v>
-      </c>
-      <c r="X54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>353</v>
+      </c>
+      <c r="P54" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I55">
         <v>17002</v>
       </c>
       <c r="J55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K55" t="s">
-        <v>353</v>
-      </c>
-      <c r="P55">
+        <v>346</v>
+      </c>
+      <c r="L55">
         <v>41.978983100000001</v>
       </c>
-      <c r="Q55">
+      <c r="M55">
         <v>2.8205928</v>
       </c>
-      <c r="T55" t="s">
-        <v>368</v>
-      </c>
-      <c r="V55" t="s">
-        <v>376</v>
-      </c>
-      <c r="X55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" t="s">
+        <v>354</v>
+      </c>
+      <c r="P55" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I56">
         <v>17007</v>
       </c>
       <c r="J56" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K56" t="s">
-        <v>343</v>
-      </c>
-      <c r="P56">
+        <v>336</v>
+      </c>
+      <c r="L56">
         <v>41.997570899999999</v>
       </c>
-      <c r="Q56">
+      <c r="M56">
         <v>2.8199659000000001</v>
       </c>
-      <c r="R56" t="s">
-        <v>360</v>
-      </c>
-      <c r="S56" t="s">
-        <v>364</v>
-      </c>
-      <c r="T56" t="s">
-        <v>370</v>
-      </c>
-      <c r="U56" t="s">
-        <v>360</v>
-      </c>
-      <c r="V56" t="s">
-        <v>364</v>
-      </c>
-      <c r="W56" t="s">
-        <v>370</v>
-      </c>
-      <c r="X56" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>352</v>
+      </c>
+      <c r="O56" t="s">
+        <v>355</v>
+      </c>
+      <c r="P56" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I57">
         <v>17007</v>
       </c>
       <c r="J57" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K57" t="s">
-        <v>354</v>
-      </c>
-      <c r="P57">
+        <v>347</v>
+      </c>
+      <c r="L57">
         <v>41.9979102</v>
       </c>
-      <c r="Q57">
+      <c r="M57">
         <v>2.8205523000000001</v>
       </c>
-      <c r="T57" t="s">
-        <v>368</v>
-      </c>
-      <c r="U57">
+      <c r="N57">
         <v>1</v>
       </c>
-      <c r="V57" t="s">
-        <v>362</v>
-      </c>
-      <c r="W57" t="s">
-        <v>367</v>
-      </c>
-      <c r="X57" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>353</v>
+      </c>
+      <c r="P57" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I58">
         <v>17190</v>
       </c>
       <c r="J58" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K58" t="s">
-        <v>343</v>
-      </c>
-      <c r="P58">
+        <v>336</v>
+      </c>
+      <c r="L58">
         <v>41.970129499999999</v>
       </c>
-      <c r="Q58">
+      <c r="M58">
         <v>2.7983408000000001</v>
       </c>
-      <c r="R58" t="s">
-        <v>359</v>
-      </c>
-      <c r="S58" t="s">
-        <v>363</v>
-      </c>
-      <c r="T58" t="s">
-        <v>369</v>
-      </c>
-      <c r="U58" t="s">
-        <v>359</v>
-      </c>
-      <c r="V58" t="s">
-        <v>363</v>
-      </c>
-      <c r="W58" t="s">
-        <v>366</v>
-      </c>
-      <c r="X58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>351</v>
+      </c>
+      <c r="O58" t="s">
+        <v>354</v>
+      </c>
+      <c r="P58" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I59">
         <v>8370</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K59" t="s">
-        <v>343</v>
-      </c>
-      <c r="P59">
+        <v>336</v>
+      </c>
+      <c r="L59">
         <v>41.615069299999988</v>
       </c>
-      <c r="Q59">
+      <c r="M59">
         <v>2.6572059000000001</v>
       </c>
-      <c r="T59" t="s">
-        <v>368</v>
-      </c>
-      <c r="V59" t="s">
-        <v>377</v>
-      </c>
-      <c r="X59" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>354</v>
+      </c>
+      <c r="P59" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H60" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I60">
         <v>17820</v>
       </c>
       <c r="J60" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K60" t="s">
-        <v>355</v>
-      </c>
-      <c r="P60">
+        <v>348</v>
+      </c>
+      <c r="L60">
         <v>42.114732199999999</v>
       </c>
-      <c r="Q60">
+      <c r="M60">
         <v>2.7612055</v>
       </c>
-      <c r="T60" t="s">
-        <v>368</v>
-      </c>
-      <c r="U60">
+      <c r="N60">
         <v>1</v>
       </c>
-      <c r="V60" t="s">
-        <v>362</v>
-      </c>
-      <c r="W60" t="s">
-        <v>367</v>
-      </c>
-      <c r="X60" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>353</v>
+      </c>
+      <c r="P60" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H61" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I61">
         <v>17530</v>
       </c>
       <c r="J61" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s">
-        <v>343</v>
-      </c>
-      <c r="P61">
+        <v>336</v>
+      </c>
+      <c r="L61">
         <v>42.222700000000003</v>
       </c>
-      <c r="Q61">
+      <c r="M61">
         <v>2.1667299999999998</v>
       </c>
-      <c r="T61" t="s">
-        <v>368</v>
-      </c>
-      <c r="U61">
+      <c r="N61">
         <v>1</v>
       </c>
-      <c r="V61" t="s">
-        <v>362</v>
-      </c>
-      <c r="W61" t="s">
-        <v>367</v>
-      </c>
-      <c r="X61" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>353</v>
+      </c>
+      <c r="P61" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I62">
         <v>17300</v>
       </c>
       <c r="J62" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K62" t="s">
-        <v>343</v>
-      </c>
-      <c r="P62">
+        <v>336</v>
+      </c>
+      <c r="L62">
         <v>41.6874368</v>
       </c>
-      <c r="Q62">
+      <c r="M62">
         <v>2.8019563000000001</v>
       </c>
-      <c r="R62" t="s">
-        <v>359</v>
-      </c>
-      <c r="S62" t="s">
-        <v>363</v>
-      </c>
-      <c r="T62" t="s">
-        <v>369</v>
-      </c>
-      <c r="U62" t="s">
-        <v>359</v>
-      </c>
-      <c r="V62" t="s">
-        <v>363</v>
-      </c>
-      <c r="W62" t="s">
-        <v>366</v>
-      </c>
-      <c r="X62" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>351</v>
+      </c>
+      <c r="O62" t="s">
+        <v>354</v>
+      </c>
+      <c r="P62" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I63">
         <v>25004</v>
       </c>
       <c r="J63" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K63" t="s">
-        <v>356</v>
-      </c>
-      <c r="P63">
+        <v>349</v>
+      </c>
+      <c r="L63">
         <v>41.622448899999988</v>
       </c>
-      <c r="Q63">
+      <c r="M63">
         <v>0.62686789999999992</v>
       </c>
-      <c r="T63" t="s">
-        <v>368</v>
-      </c>
-      <c r="U63">
+      <c r="N63">
         <v>1</v>
       </c>
-      <c r="V63" t="s">
-        <v>362</v>
-      </c>
-      <c r="W63" t="s">
-        <v>367</v>
-      </c>
-      <c r="X63" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>353</v>
+      </c>
+      <c r="P63" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H64" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I64">
         <v>25198</v>
       </c>
       <c r="J64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K64" t="s">
+        <v>350</v>
+      </c>
+      <c r="L64">
+        <v>41.6241105</v>
+      </c>
+      <c r="M64">
+        <v>0.61828139999999998</v>
+      </c>
+      <c r="N64" t="s">
+        <v>351</v>
+      </c>
+      <c r="O64" t="s">
+        <v>354</v>
+      </c>
+      <c r="P64" t="s">
         <v>357</v>
       </c>
-      <c r="P64">
-        <v>41.6241105</v>
-      </c>
-      <c r="Q64">
-        <v>0.61828139999999998</v>
-      </c>
-      <c r="R64" t="s">
-        <v>359</v>
-      </c>
-      <c r="S64" t="s">
-        <v>363</v>
-      </c>
-      <c r="T64" t="s">
-        <v>369</v>
-      </c>
-      <c r="U64" t="s">
-        <v>359</v>
-      </c>
-      <c r="V64" t="s">
-        <v>363</v>
-      </c>
-      <c r="W64" t="s">
-        <v>366</v>
-      </c>
-      <c r="X64" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I65">
         <v>25198</v>
       </c>
       <c r="J65" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K65" t="s">
-        <v>343</v>
-      </c>
-      <c r="P65">
+        <v>336</v>
+      </c>
+      <c r="L65">
         <v>41.626700499999998</v>
       </c>
-      <c r="Q65">
+      <c r="M65">
         <v>0.61337909999999995</v>
       </c>
-      <c r="R65" t="s">
-        <v>360</v>
-      </c>
-      <c r="S65" t="s">
-        <v>364</v>
-      </c>
-      <c r="T65" t="s">
-        <v>370</v>
-      </c>
-      <c r="U65" t="s">
-        <v>360</v>
-      </c>
-      <c r="V65" t="s">
-        <v>364</v>
-      </c>
-      <c r="W65" t="s">
-        <v>370</v>
-      </c>
-      <c r="X65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>351</v>
+      </c>
+      <c r="O65" t="s">
+        <v>354</v>
+      </c>
+      <c r="P65" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I66">
         <v>43500</v>
       </c>
       <c r="J66" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P66">
+        <v>336</v>
+      </c>
+      <c r="L66">
         <v>40.813831200000003</v>
       </c>
-      <c r="Q66">
+      <c r="M66">
         <v>0.51628030000000003</v>
       </c>
-      <c r="T66" t="s">
-        <v>368</v>
-      </c>
-      <c r="U66">
+      <c r="N66">
         <v>1</v>
       </c>
-      <c r="V66" t="s">
-        <v>362</v>
-      </c>
-      <c r="W66" t="s">
-        <v>367</v>
-      </c>
-      <c r="X66" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>353</v>
+      </c>
+      <c r="P66" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I67">
         <v>43500</v>
       </c>
       <c r="J67" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s">
-        <v>343</v>
-      </c>
-      <c r="P67">
+        <v>336</v>
+      </c>
+      <c r="L67">
         <v>40.811639999999997</v>
       </c>
-      <c r="Q67">
+      <c r="M67">
         <v>0.5242</v>
       </c>
-      <c r="R67" t="s">
-        <v>359</v>
-      </c>
-      <c r="S67" t="s">
-        <v>363</v>
-      </c>
-      <c r="T67" t="s">
-        <v>369</v>
-      </c>
-      <c r="U67" t="s">
-        <v>359</v>
-      </c>
-      <c r="V67" t="s">
-        <v>363</v>
-      </c>
-      <c r="W67" t="s">
-        <v>366</v>
-      </c>
-      <c r="X67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>351</v>
+      </c>
+      <c r="O67" t="s">
+        <v>354</v>
+      </c>
+      <c r="P67" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G68" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I68">
         <v>43870</v>
       </c>
       <c r="J68" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s">
-        <v>343</v>
-      </c>
-      <c r="P68">
+        <v>336</v>
+      </c>
+      <c r="L68">
         <v>40.708919999999999</v>
       </c>
-      <c r="Q68">
+      <c r="M68">
         <v>0.57830300000000001</v>
       </c>
-      <c r="T68" t="s">
-        <v>368</v>
-      </c>
-      <c r="U68">
+      <c r="N68">
         <v>1</v>
       </c>
-      <c r="V68" t="s">
-        <v>362</v>
-      </c>
-      <c r="W68" t="s">
-        <v>367</v>
-      </c>
-      <c r="X68" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>353</v>
+      </c>
+      <c r="P68" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I69">
         <v>43740</v>
       </c>
       <c r="J69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s">
-        <v>343</v>
-      </c>
-      <c r="P69">
+        <v>336</v>
+      </c>
+      <c r="L69">
         <v>41.094861000000002</v>
       </c>
-      <c r="Q69">
+      <c r="M69">
         <v>0.63866800000000001</v>
       </c>
-      <c r="R69" t="s">
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>353</v>
+      </c>
+      <c r="P69" t="s">
         <v>358</v>
       </c>
-      <c r="S69" t="s">
-        <v>361</v>
-      </c>
-      <c r="T69" t="s">
-        <v>366</v>
-      </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="V69" t="s">
-        <v>362</v>
-      </c>
-      <c r="W69" t="s">
-        <v>367</v>
-      </c>
-      <c r="X69" t="s">
-        <v>445</v>
+      <c r="Q69" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/mii/hospitals/hospitals_catalunya_geocoded.xlsx
+++ b/mii/hospitals/hospitals_catalunya_geocoded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciamug/Desktop/repos/regions-sanitaries-catalunya/mii/hospitals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFCF15B-B993-0541-8801-74EC36A2783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB82B51-2C6B-374D-9145-B234A2A95354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="420">
   <si>
     <t>Regió Sanitària</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Tipus hospital</t>
   </si>
   <si>
-    <t>Descripció tipus hospital</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Adreça completa</t>
   </si>
   <si>
@@ -1079,30 +1073,6 @@
   </si>
   <si>
     <t>2b</t>
-  </si>
-  <si>
-    <t>Sense servei de digestiu</t>
-  </si>
-  <si>
-    <t>Tenen servei de digestiu però no unitat de malaltia inflamatòria</t>
-  </si>
-  <si>
-    <t>Tenen unitat de malaltia inflamatòria</t>
-  </si>
-  <si>
-    <t>Hospitals de referència i alta complexitat</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>Fundació Sant Hospital, 25700, La Seu d'Urgell , Spain</t>
@@ -1711,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O51" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1728,10 +1698,9 @@
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="15" max="15" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -1777,34 +1746,28 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1813,10 +1776,10 @@
         <v>25700</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L2">
         <v>42.354861300000003</v>
@@ -1828,36 +1791,30 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>353</v>
-      </c>
-      <c r="P2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -1866,10 +1823,10 @@
         <v>17520</v>
       </c>
       <c r="J3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L3">
         <v>42.4440454</v>
@@ -1881,36 +1838,30 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P3" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1919,10 +1870,10 @@
         <v>25620</v>
       </c>
       <c r="J4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L4">
         <v>42.164433500000001</v>
@@ -1936,34 +1887,28 @@
       <c r="O4" t="s">
         <v>353</v>
       </c>
-      <c r="P4" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1972,10 +1917,10 @@
         <v>25530</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L5">
         <v>42.701725199999998</v>
@@ -1987,36 +1932,30 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
-      </c>
-      <c r="P5" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2025,10 +1964,10 @@
         <v>8720</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L6">
         <v>41.356360299999999</v>
@@ -2040,36 +1979,30 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>353</v>
-      </c>
-      <c r="P6" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2078,7 +2011,7 @@
         <v>8950</v>
       </c>
       <c r="K7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L7">
         <v>41.384265800000001</v>
@@ -2092,34 +2025,28 @@
       <c r="O7" t="s">
         <v>356</v>
       </c>
-      <c r="P7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2128,10 +2055,10 @@
         <v>8760</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L8">
         <v>41.471792099999988</v>
@@ -2140,39 +2067,33 @@
         <v>1.9203068000000001</v>
       </c>
       <c r="N8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O8" t="s">
-        <v>354</v>
-      </c>
-      <c r="P8" t="s">
         <v>357</v>
       </c>
-      <c r="Q8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -2181,10 +2102,10 @@
         <v>8830</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L9">
         <v>41.3527694</v>
@@ -2193,39 +2114,33 @@
         <v>2.0343738999999998</v>
       </c>
       <c r="N9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O9" t="s">
-        <v>354</v>
-      </c>
-      <c r="P9" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -2234,10 +2149,10 @@
         <v>8970</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L10">
         <v>41.3733164</v>
@@ -2246,39 +2161,33 @@
         <v>2.0725156999999998</v>
       </c>
       <c r="N10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O10" t="s">
-        <v>355</v>
-      </c>
-      <c r="P10" t="s">
         <v>359</v>
       </c>
-      <c r="Q10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11">
         <v>38</v>
@@ -2287,10 +2196,10 @@
         <v>8840</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L11">
         <v>41.312458199999988</v>
@@ -2299,51 +2208,45 @@
         <v>2.0146535999999999</v>
       </c>
       <c r="N11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O11" t="s">
-        <v>355</v>
-      </c>
-      <c r="P11" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I12">
         <v>8911</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L12">
         <v>41.450493399999999</v>
@@ -2355,48 +2258,42 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>353</v>
-      </c>
-      <c r="P12" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I13">
         <v>8916</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L13">
         <v>41.481186999999998</v>
@@ -2405,51 +2302,45 @@
         <v>2.2375473000000001</v>
       </c>
       <c r="N13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O13" t="s">
-        <v>355</v>
-      </c>
-      <c r="P13" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I14">
         <v>8917</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L14">
         <v>41.446964000000001</v>
@@ -2461,48 +2352,42 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>353</v>
-      </c>
-      <c r="P14" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I15">
         <v>8918</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L15">
         <v>41.478625299999997</v>
@@ -2514,48 +2399,42 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>353</v>
-      </c>
-      <c r="P15" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I16">
         <v>8025</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L16">
         <v>41.412798600000002</v>
@@ -2567,48 +2446,42 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>353</v>
-      </c>
-      <c r="P16" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I17">
         <v>8036</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L17">
         <v>41.3894436</v>
@@ -2620,48 +2493,42 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>356</v>
-      </c>
-      <c r="P17" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I18">
         <v>8028</v>
       </c>
       <c r="J18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L18">
         <v>41.385286899999997</v>
@@ -2673,48 +2540,42 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>353</v>
-      </c>
-      <c r="P18" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I19">
         <v>8025</v>
       </c>
       <c r="J19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L19">
         <v>41.410538699999996</v>
@@ -2726,48 +2587,42 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>353</v>
-      </c>
-      <c r="P19" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I20">
         <v>8006</v>
       </c>
       <c r="J20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L20">
         <v>41.401191999999988</v>
@@ -2779,48 +2634,42 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>353</v>
-      </c>
-      <c r="P20" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I21">
         <v>8035</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L21">
         <v>41.425639099999998</v>
@@ -2832,48 +2681,42 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>353</v>
-      </c>
-      <c r="P21" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I22">
         <v>8035</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L22">
         <v>41.427687400000003</v>
@@ -2885,48 +2728,42 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>356</v>
-      </c>
-      <c r="P22" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I23">
         <v>8036</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L23">
         <v>41.428346100000013</v>
@@ -2938,48 +2775,42 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>353</v>
-      </c>
-      <c r="P23" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I24">
         <v>8029</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L24">
         <v>41.388908399999998</v>
@@ -2988,51 +2819,45 @@
         <v>2.1456526999999999</v>
       </c>
       <c r="N24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O24" t="s">
-        <v>354</v>
-      </c>
-      <c r="P24" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I25">
         <v>8035</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L25">
         <v>41.427379500000001</v>
@@ -3044,48 +2869,42 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>353</v>
-      </c>
-      <c r="P25" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I26">
         <v>8024</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L26">
         <v>41.410722700000001</v>
@@ -3097,48 +2916,42 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>353</v>
-      </c>
-      <c r="P26" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I27">
         <v>8041</v>
       </c>
       <c r="J27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L27">
         <v>41.413699700000002</v>
@@ -3147,51 +2960,45 @@
         <v>2.1743139999999999</v>
       </c>
       <c r="N27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O27" t="s">
-        <v>355</v>
-      </c>
-      <c r="P27" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I28">
         <v>8003</v>
       </c>
       <c r="J28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L28">
         <v>41.384511799999999</v>
@@ -3200,51 +3007,45 @@
         <v>2.1939044999999999</v>
       </c>
       <c r="N28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O28" t="s">
-        <v>355</v>
-      </c>
-      <c r="P28" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I29">
         <v>8906</v>
       </c>
       <c r="J29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L29">
         <v>41.374336499999998</v>
@@ -3256,48 +3057,42 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>353</v>
-      </c>
-      <c r="P29" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>8907</v>
       </c>
       <c r="J30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L30">
         <v>41.344766100000001</v>
@@ -3309,48 +3104,42 @@
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>356</v>
-      </c>
-      <c r="P30" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I31">
         <v>8908</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L31">
         <v>41.345760899999988</v>
@@ -3362,48 +3151,42 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>353</v>
-      </c>
-      <c r="P31" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I32">
         <v>8923</v>
       </c>
       <c r="J32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L32">
         <v>41.437933899999997</v>
@@ -3412,51 +3195,45 @@
         <v>2.2132304999999999</v>
       </c>
       <c r="N32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O32" t="s">
-        <v>354</v>
-      </c>
-      <c r="P32" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I33">
         <v>8810</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L33">
         <v>41.253937000000001</v>
@@ -3468,48 +3245,42 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>353</v>
-      </c>
-      <c r="P33" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I34">
         <v>8800</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L34">
         <v>41.228814999999997</v>
@@ -3521,48 +3292,42 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>353</v>
-      </c>
-      <c r="P34" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I35">
         <v>8304</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L35">
         <v>41.556113099999997</v>
@@ -3571,51 +3336,45 @@
         <v>2.4297713999999999</v>
       </c>
       <c r="N35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>354</v>
-      </c>
-      <c r="P35" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I36">
         <v>8208</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L36">
         <v>41.5570752</v>
@@ -3624,39 +3383,33 @@
         <v>2.1098612000000001</v>
       </c>
       <c r="N36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s">
-        <v>355</v>
-      </c>
-      <c r="P36" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3665,10 +3418,10 @@
         <v>8221</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L37">
         <v>41.563857599999999</v>
@@ -3677,51 +3430,45 @@
         <v>2.0171051000000002</v>
       </c>
       <c r="N37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s">
-        <v>355</v>
-      </c>
-      <c r="P37" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I38">
         <v>8227</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L38">
         <v>41.556908999999997</v>
@@ -3730,39 +3477,33 @@
         <v>2.0526339</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>355</v>
-      </c>
-      <c r="P38" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H39">
         <v>62</v>
@@ -3771,10 +3512,10 @@
         <v>8402</v>
       </c>
       <c r="J39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L39">
         <v>41.613826400000001</v>
@@ -3783,51 +3524,45 @@
         <v>2.2957912</v>
       </c>
       <c r="N39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>354</v>
-      </c>
-      <c r="P39" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I40">
         <v>8100</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L40">
         <v>41.543708100000003</v>
@@ -3836,51 +3571,45 @@
         <v>2.2021875</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>354</v>
-      </c>
-      <c r="P40" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I41">
         <v>8470</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L41">
         <v>41.687720400000003</v>
@@ -3892,48 +3621,42 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>353</v>
-      </c>
-      <c r="P41" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I42">
         <v>43800</v>
       </c>
       <c r="J42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L42">
         <v>41.282998499999998</v>
@@ -3945,48 +3668,42 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>353</v>
-      </c>
-      <c r="P42" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I43">
         <v>43203</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L43">
         <v>41.160398000000001</v>
@@ -3998,48 +3715,42 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>353</v>
-      </c>
-      <c r="P43" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I44">
         <v>43204</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L44">
         <v>41.145057399999999</v>
@@ -4048,51 +3759,45 @@
         <v>1.1230392</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>354</v>
-      </c>
-      <c r="P44" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I45">
         <v>43700</v>
       </c>
       <c r="J45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L45">
         <v>41.226917899999997</v>
@@ -4104,48 +3809,42 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>353</v>
-      </c>
-      <c r="P45" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I46">
         <v>43003</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L46">
         <v>41.116261600000001</v>
@@ -4154,51 +3853,45 @@
         <v>1.254885</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>354</v>
-      </c>
-      <c r="P46" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I47">
         <v>43005</v>
       </c>
       <c r="J47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L47">
         <v>41.124218900000002</v>
@@ -4207,51 +3900,45 @@
         <v>1.2385314999999999</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O47" t="s">
-        <v>355</v>
-      </c>
-      <c r="P47" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I48">
         <v>8700</v>
       </c>
       <c r="J48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L48">
         <v>41.588710499999998</v>
@@ -4260,51 +3947,45 @@
         <v>1.6200733</v>
       </c>
       <c r="N48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O48" t="s">
-        <v>354</v>
-      </c>
-      <c r="P48" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I49">
         <v>8243</v>
       </c>
       <c r="J49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L49">
         <v>41.7205297</v>
@@ -4313,51 +3994,45 @@
         <v>1.8374283</v>
       </c>
       <c r="N49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O49" t="s">
-        <v>355</v>
-      </c>
-      <c r="P49" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I50">
         <v>8600</v>
       </c>
       <c r="J50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L50">
         <v>42.106474200000001</v>
@@ -4369,48 +4044,42 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>353</v>
-      </c>
-      <c r="P50" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I51">
         <v>8500</v>
       </c>
       <c r="J51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L51">
         <v>41.936675000000001</v>
@@ -4419,51 +4088,45 @@
         <v>2.2602905</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O51" t="s">
-        <v>354</v>
-      </c>
-      <c r="P51" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I52">
         <v>17600</v>
       </c>
       <c r="J52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L52">
         <v>42.268354500000001</v>
@@ -4472,51 +4135,45 @@
         <v>2.9536167</v>
       </c>
       <c r="N52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O52" t="s">
-        <v>354</v>
-      </c>
-      <c r="P52" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I53">
         <v>17230</v>
       </c>
       <c r="J53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L53">
         <v>41.8529099</v>
@@ -4525,51 +4182,45 @@
         <v>3.1317395000000001</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O53" t="s">
-        <v>354</v>
-      </c>
-      <c r="P53" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I54">
         <v>17800</v>
       </c>
       <c r="J54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L54">
         <v>42.187636699999999</v>
@@ -4581,48 +4232,42 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>353</v>
-      </c>
-      <c r="P54" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I55">
         <v>17002</v>
       </c>
       <c r="J55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L55">
         <v>41.978983100000001</v>
@@ -4631,51 +4276,45 @@
         <v>2.8205928</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O55" t="s">
-        <v>354</v>
-      </c>
-      <c r="P55" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I56">
         <v>17007</v>
       </c>
       <c r="J56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L56">
         <v>41.997570899999999</v>
@@ -4684,51 +4323,45 @@
         <v>2.8199659000000001</v>
       </c>
       <c r="N56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O56" t="s">
-        <v>355</v>
-      </c>
-      <c r="P56" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I57">
         <v>17007</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L57">
         <v>41.9979102</v>
@@ -4740,48 +4373,42 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>353</v>
-      </c>
-      <c r="P57" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I58">
         <v>17190</v>
       </c>
       <c r="J58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L58">
         <v>41.970129499999999</v>
@@ -4790,51 +4417,45 @@
         <v>2.7983408000000001</v>
       </c>
       <c r="N58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O58" t="s">
-        <v>354</v>
-      </c>
-      <c r="P58" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I59">
         <v>8370</v>
       </c>
       <c r="J59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L59">
         <v>41.615069299999988</v>
@@ -4843,48 +4464,42 @@
         <v>2.6572059000000001</v>
       </c>
       <c r="O59" t="s">
-        <v>354</v>
-      </c>
-      <c r="P59" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I60">
         <v>17820</v>
       </c>
       <c r="J60" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L60">
         <v>42.114732199999999</v>
@@ -4896,48 +4511,42 @@
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>353</v>
-      </c>
-      <c r="P60" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I61">
         <v>17530</v>
       </c>
       <c r="J61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L61">
         <v>42.222700000000003</v>
@@ -4949,48 +4558,42 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>353</v>
-      </c>
-      <c r="P61" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I62">
         <v>17300</v>
       </c>
       <c r="J62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L62">
         <v>41.6874368</v>
@@ -4999,51 +4602,45 @@
         <v>2.8019563000000001</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O62" t="s">
-        <v>354</v>
-      </c>
-      <c r="P62" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I63">
         <v>25004</v>
       </c>
       <c r="J63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K63" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L63">
         <v>41.622448899999988</v>
@@ -5055,48 +4652,42 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>353</v>
-      </c>
-      <c r="P63" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I64">
         <v>25198</v>
       </c>
       <c r="J64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K64" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L64">
         <v>41.6241105</v>
@@ -5105,51 +4696,45 @@
         <v>0.61828139999999998</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O64" t="s">
-        <v>354</v>
-      </c>
-      <c r="P64" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I65">
         <v>25198</v>
       </c>
       <c r="J65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L65">
         <v>41.626700499999998</v>
@@ -5158,51 +4743,45 @@
         <v>0.61337909999999995</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O65" t="s">
-        <v>354</v>
-      </c>
-      <c r="P65" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" t="s">
-        <v>24</v>
-      </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I66">
         <v>43500</v>
       </c>
       <c r="J66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L66">
         <v>40.813831200000003</v>
@@ -5214,48 +4793,42 @@
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>353</v>
-      </c>
-      <c r="P66" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I67">
         <v>43500</v>
       </c>
       <c r="J67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L67">
         <v>40.811639999999997</v>
@@ -5264,51 +4837,45 @@
         <v>0.5242</v>
       </c>
       <c r="N67" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O67" t="s">
-        <v>354</v>
-      </c>
-      <c r="P67" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I68">
         <v>43870</v>
       </c>
       <c r="J68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L68">
         <v>40.708919999999999</v>
@@ -5320,48 +4887,42 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>353</v>
-      </c>
-      <c r="P68" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H69" t="s">
         <v>236</v>
-      </c>
-      <c r="H69" t="s">
-        <v>238</v>
       </c>
       <c r="I69">
         <v>43740</v>
       </c>
       <c r="J69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L69">
         <v>41.094861000000002</v>
@@ -5373,13 +4934,7 @@
         <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>353</v>
-      </c>
-      <c r="P69" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/mii/hospitals/hospitals_catalunya_geocoded.xlsx
+++ b/mii/hospitals/hospitals_catalunya_geocoded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciamug/Desktop/repos/regions-sanitaries-catalunya/mii/hospitals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB82B51-2C6B-374D-9145-B234A2A95354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E504F7B3-AC63-4048-B55B-16939CFAB6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4743,7 +4743,7 @@
         <v>0.61337909999999995</v>
       </c>
       <c r="N65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O65" t="s">
         <v>414</v>
